--- a/data/trans_orig/P57_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57_R2-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>153481</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135500</v>
+        <v>131981</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>174232</v>
+        <v>173396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3593217564957328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3172268308371905</v>
+        <v>0.3089871921083919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4079029694462374</v>
+        <v>0.4059468727650618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>106</v>
@@ -763,19 +763,19 @@
         <v>110772</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94414</v>
+        <v>93787</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>128085</v>
+        <v>127804</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3210161247244406</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2736124067617056</v>
+        <v>0.2717944840197122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3711905777312838</v>
+        <v>0.3703767281052251</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>244</v>
@@ -784,19 +784,19 @@
         <v>264252</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>241415</v>
+        <v>238816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>291725</v>
+        <v>292634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3422045964810235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3126297795179195</v>
+        <v>0.3092646958402463</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3777810055433813</v>
+        <v>0.3789581766333743</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>273659</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252908</v>
+        <v>253744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291640</v>
+        <v>295159</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6406782435042673</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5920970305537625</v>
+        <v>0.5940531272349382</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6827731691628094</v>
+        <v>0.691012807891608</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -834,19 +834,19 @@
         <v>234294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>216981</v>
+        <v>217262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250652</v>
+        <v>251279</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6789838752755595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6288094222687163</v>
+        <v>0.629623271894775</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7263875932382944</v>
+        <v>0.7282055159802878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -855,19 +855,19 @@
         <v>507954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>480481</v>
+        <v>479572</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>530791</v>
+        <v>533390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6577954035189766</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6222189944566185</v>
+        <v>0.6210418233666257</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6873702204820805</v>
+        <v>0.6907353041597538</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>120224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99607</v>
+        <v>101950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>137907</v>
+        <v>140329</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3207838294096365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2657738958521727</v>
+        <v>0.2720265318703032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3679664049115823</v>
+        <v>0.3744288050827144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -980,19 +980,19 @@
         <v>91765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76371</v>
+        <v>75887</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>109628</v>
+        <v>109615</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2486864194409155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2069683409711852</v>
+        <v>0.205658178738211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2970978391110639</v>
+        <v>0.2970608319174722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -1001,19 +1001,19 @@
         <v>211988</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185141</v>
+        <v>188894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237839</v>
+        <v>242590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2850154748823463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2489201624737664</v>
+        <v>0.2539661838569729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3197719091593856</v>
+        <v>0.326159591464087</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>254557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>236874</v>
+        <v>234452</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275174</v>
+        <v>272831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6792161705903635</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6320335950884177</v>
+        <v>0.6255711949172856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7342261041478272</v>
+        <v>0.7279734681296968</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>261</v>
@@ -1051,19 +1051,19 @@
         <v>277232</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>259369</v>
+        <v>259382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>292626</v>
+        <v>293110</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7513135805590845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.702902160888936</v>
+        <v>0.7029391680825279</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7930316590288148</v>
+        <v>0.794341821261789</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>502</v>
@@ -1072,19 +1072,19 @@
         <v>531790</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>505939</v>
+        <v>501188</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>558637</v>
+        <v>554884</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7149845251176538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6802280908406144</v>
+        <v>0.6738404085359128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7510798375262334</v>
+        <v>0.746033816143027</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>151785</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>133370</v>
+        <v>132477</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>174590</v>
+        <v>175738</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2924678175870803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2569859057338558</v>
+        <v>0.2552638136418672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.336410634596562</v>
+        <v>0.3386219982002274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1197,19 +1197,19 @@
         <v>40682</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30081</v>
+        <v>30767</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52170</v>
+        <v>51951</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2471917496260085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1827764170116675</v>
+        <v>0.1869424126358888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.316990157789886</v>
+        <v>0.3156606976085079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>189</v>
@@ -1218,19 +1218,19 @@
         <v>192467</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169624</v>
+        <v>168911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>215865</v>
+        <v>215067</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.281566816244397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2481480162896562</v>
+        <v>0.2471061045690436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3157959185094821</v>
+        <v>0.3146286230323685</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>367194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344389</v>
+        <v>343241</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>385609</v>
+        <v>386502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7075321824129197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6635893654034377</v>
+        <v>0.6613780017997721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7430140942661441</v>
+        <v>0.7447361863581327</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -1268,19 +1268,19 @@
         <v>123896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112408</v>
+        <v>112627</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134497</v>
+        <v>133811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7528082503739915</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6830098422101136</v>
+        <v>0.6843393023914922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8172235829883324</v>
+        <v>0.8130575873641113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>462</v>
@@ -1289,19 +1289,19 @@
         <v>491091</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>467693</v>
+        <v>468491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>513934</v>
+        <v>514647</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7184331837556031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6842040814905181</v>
+        <v>0.6853713769676315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.751851983710344</v>
+        <v>0.7528938954309565</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>319320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>291255</v>
+        <v>291849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>351282</v>
+        <v>351262</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2787657897720678</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.254265834502101</v>
+        <v>0.2547843047053598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3066686639843788</v>
+        <v>0.3066515797798867</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>244</v>
@@ -1414,19 +1414,19 @@
         <v>250117</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223438</v>
+        <v>222088</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>279241</v>
+        <v>275329</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3032274987610691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2708835834210615</v>
+        <v>0.2692462191322917</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3385350773295724</v>
+        <v>0.3337930543327726</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>550</v>
@@ -1435,19 +1435,19 @@
         <v>569437</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>528565</v>
+        <v>530245</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>613743</v>
+        <v>613350</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2890063504186739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2682624990696226</v>
+        <v>0.2691152874895117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3114933674494686</v>
+        <v>0.3112934691772464</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>826156</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>794194</v>
+        <v>794214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>854221</v>
+        <v>853627</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7212342102279321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6933313360156211</v>
+        <v>0.6933484202201131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7457341654978989</v>
+        <v>0.74521569529464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>553</v>
@@ -1485,19 +1485,19 @@
         <v>574733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>545609</v>
+        <v>549521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>601412</v>
+        <v>602762</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6967725012389309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6614649226704277</v>
+        <v>0.6662069456672276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7291164165789386</v>
+        <v>0.7307537808677088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1346</v>
@@ -1506,19 +1506,19 @@
         <v>1400889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1356583</v>
+        <v>1356976</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1441761</v>
+        <v>1440081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7109936495813262</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6885066325505314</v>
+        <v>0.6887065308227536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7317375009303775</v>
+        <v>0.7308847125104883</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>150164</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>129296</v>
+        <v>128978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171700</v>
+        <v>173307</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2427554015091654</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2090199726973969</v>
+        <v>0.2085062827428142</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2775691478513922</v>
+        <v>0.2801684455963747</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>134</v>
@@ -1631,19 +1631,19 @@
         <v>135088</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113121</v>
+        <v>116181</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>157017</v>
+        <v>159048</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1835355424019594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1536902194200166</v>
+        <v>0.157847977787748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2133281364229158</v>
+        <v>0.2160877168970554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -1652,19 +1652,19 @@
         <v>285253</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>254703</v>
+        <v>256588</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316167</v>
+        <v>316838</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2105781882713949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1880257428219616</v>
+        <v>0.1894177408676199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2333996910100944</v>
+        <v>0.2338950880366549</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>468419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>446883</v>
+        <v>445276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>489287</v>
+        <v>489605</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7572445984908346</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7224308521486078</v>
+        <v>0.7198315544036253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7909800273026031</v>
+        <v>0.7914937172571859</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>563</v>
@@ -1702,19 +1702,19 @@
         <v>600945</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>579016</v>
+        <v>576985</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>622912</v>
+        <v>619852</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8164644575980405</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7866718635770842</v>
+        <v>0.7839122831029446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8463097805799835</v>
+        <v>0.8421520222122519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1016</v>
@@ -1723,19 +1723,19 @@
         <v>1069364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1038450</v>
+        <v>1037779</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1099914</v>
+        <v>1098029</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.789421811728605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7666003089899055</v>
+        <v>0.7661049119633451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8119742571780381</v>
+        <v>0.8105822591323799</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>129006</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112960</v>
+        <v>112505</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>147382</v>
+        <v>146696</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4492702079489342</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3933903671230682</v>
+        <v>0.3918038371494472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5132659995137667</v>
+        <v>0.5108779140570369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>283</v>
@@ -1848,19 +1848,19 @@
         <v>299278</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>269195</v>
+        <v>271097</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>329046</v>
+        <v>330590</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2782345832572761</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2502665795997954</v>
+        <v>0.2520352353633025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3059091209692093</v>
+        <v>0.3073449111465433</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>406</v>
@@ -1869,19 +1869,19 @@
         <v>428284</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>396207</v>
+        <v>393007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>466533</v>
+        <v>465511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3142727752578551</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2907344660942116</v>
+        <v>0.2883866124677728</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3423394735686545</v>
+        <v>0.3415898658273899</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>158139</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139763</v>
+        <v>140449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>174185</v>
+        <v>174640</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5507297920510659</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4867340004862326</v>
+        <v>0.4891220859429631</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.606609632876931</v>
+        <v>0.6081961628505524</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>703</v>
@@ -1919,19 +1919,19 @@
         <v>776355</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>746587</v>
+        <v>745043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>806438</v>
+        <v>804536</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7217654167427239</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6940908790307908</v>
+        <v>0.6926550888534567</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7497334204002047</v>
+        <v>0.7479647646366975</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>852</v>
@@ -1940,19 +1940,19 @@
         <v>934494</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>896245</v>
+        <v>897267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>966571</v>
+        <v>969771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6857272247421449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6576605264313455</v>
+        <v>0.6584101341726102</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7092655339057884</v>
+        <v>0.7116133875322274</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>1023979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>971612</v>
+        <v>969061</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1074351</v>
+        <v>1078951</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3036616351741052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2881322253881308</v>
+        <v>0.2873755685470246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3185994199832143</v>
+        <v>0.3199636429837617</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>896</v>
@@ -2065,19 +2065,19 @@
         <v>927702</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>876357</v>
+        <v>878248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>982110</v>
+        <v>982904</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2639149011515123</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2493081215572955</v>
+        <v>0.249845995205775</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2793927880003454</v>
+        <v>0.2796188647419191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1864</v>
@@ -2086,19 +2086,19 @@
         <v>1951681</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1879658</v>
+        <v>1878758</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2027633</v>
+        <v>2032706</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.283375486521337</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2729180918552173</v>
+        <v>0.2727873699162383</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2944033845043196</v>
+        <v>0.2951399263406982</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2348126</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2297754</v>
+        <v>2293154</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2400493</v>
+        <v>2403044</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6963383648258948</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6814005800167857</v>
+        <v>0.6800363570162382</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7118677746118692</v>
+        <v>0.7126244314529758</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2415</v>
@@ -2136,19 +2136,19 @@
         <v>2587455</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2533047</v>
+        <v>2532253</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2638800</v>
+        <v>2636909</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7360850988484877</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7206072119996543</v>
+        <v>0.7203811352580812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7506918784427044</v>
+        <v>0.7501540047942256</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4658</v>
@@ -2157,19 +2157,19 @@
         <v>4935581</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4859629</v>
+        <v>4854556</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5007604</v>
+        <v>5008504</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.716624513478663</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7055966154956803</v>
+        <v>0.7048600736593018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7270819081447827</v>
+        <v>0.7272126300837617</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>241597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>216025</v>
+        <v>217552</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264812</v>
+        <v>266201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4387735173117355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3923316400488602</v>
+        <v>0.3951043846982956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4809358537440535</v>
+        <v>0.4834578858920742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>306</v>
@@ -2524,19 +2524,19 @@
         <v>227331</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>208632</v>
+        <v>208136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245858</v>
+        <v>248066</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4665316675928983</v>
+        <v>0.4665316675928982</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4281575149347366</v>
+        <v>0.4271395797285276</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5045535157061987</v>
+        <v>0.5090837952279075</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>538</v>
@@ -2545,19 +2545,19 @@
         <v>468928</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>440669</v>
+        <v>438378</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>501384</v>
+        <v>501415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.451805597753888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4245787995219048</v>
+        <v>0.4223710130069245</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4830772896162727</v>
+        <v>0.4831062990712515</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>309021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285806</v>
+        <v>284417</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334593</v>
+        <v>333066</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5612264826882646</v>
+        <v>0.5612264826882645</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5190641462559462</v>
+        <v>0.5165421141079257</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6076683599511398</v>
+        <v>0.6048956153017042</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>378</v>
@@ -2595,19 +2595,19 @@
         <v>259948</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>241421</v>
+        <v>239213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>278647</v>
+        <v>279143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5334683324071018</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4954464842938013</v>
+        <v>0.4909162047720925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5718424850652634</v>
+        <v>0.5728604202714723</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>700</v>
@@ -2616,19 +2616,19 @@
         <v>568969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>536513</v>
+        <v>536482</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>597228</v>
+        <v>599519</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.548194402246112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5169227103837273</v>
+        <v>0.5168937009287486</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5754212004780952</v>
+        <v>0.5776289869930754</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>232567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208785</v>
+        <v>210283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253910</v>
+        <v>256076</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4819586568498024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4326753012732792</v>
+        <v>0.4357799505997612</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5261886322890368</v>
+        <v>0.5306787194125996</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>252</v>
@@ -2741,19 +2741,19 @@
         <v>189044</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>170437</v>
+        <v>170131</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207145</v>
+        <v>208944</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.448536961644787</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4043886069709129</v>
+        <v>0.403662780729405</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4914830587189363</v>
+        <v>0.4957522380658835</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>472</v>
@@ -2762,19 +2762,19 @@
         <v>421611</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>390936</v>
+        <v>391049</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449387</v>
+        <v>450665</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.4663768136045189</v>
+        <v>0.4663768136045188</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4324451800781912</v>
+        <v>0.4325696757173217</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4971021212007586</v>
+        <v>0.4985154391064873</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>249978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>228635</v>
+        <v>226469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>273760</v>
+        <v>272262</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5180413431501976</v>
+        <v>0.5180413431501975</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.473811367710963</v>
+        <v>0.4693212805874002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5673246987267205</v>
+        <v>0.5642200494002384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -2812,19 +2812,19 @@
         <v>232425</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>214324</v>
+        <v>212525</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>251032</v>
+        <v>251338</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5514630383552129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5085169412810637</v>
+        <v>0.5042477619341165</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5956113930290867</v>
+        <v>0.5963372192705949</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>596</v>
@@ -2833,19 +2833,19 @@
         <v>482403</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>454627</v>
+        <v>453349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>513078</v>
+        <v>512965</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5336231863954812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5028978787992414</v>
+        <v>0.5014845608935128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5675548199218089</v>
+        <v>0.5674303242826784</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>226347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>204802</v>
+        <v>204113</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>249174</v>
+        <v>247820</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4799426210268319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4342585553181538</v>
+        <v>0.43279882066191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5283460481887748</v>
+        <v>0.5254737086129536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -2958,19 +2958,19 @@
         <v>73817</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62015</v>
+        <v>62765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85193</v>
+        <v>86227</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3936950785932631</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3307496333223301</v>
+        <v>0.3347514292615722</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4543715896823509</v>
+        <v>0.459884790766478</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -2979,19 +2979,19 @@
         <v>300163</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275474</v>
+        <v>275433</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>327107</v>
+        <v>326018</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4554077109585034</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4179494730050181</v>
+        <v>0.4178876246895287</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4962865301054291</v>
+        <v>0.4946337801003051</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>245265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>222438</v>
+        <v>223792</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>266810</v>
+        <v>267499</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5200573789731681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4716539518112252</v>
+        <v>0.4745262913870463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5657414446818461</v>
+        <v>0.56720117933809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>184</v>
@@ -3029,19 +3029,19 @@
         <v>113680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102304</v>
+        <v>101270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125482</v>
+        <v>124732</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6063049214067369</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5456284103176491</v>
+        <v>0.540115209233522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6692503666776698</v>
+        <v>0.665248570738428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>456</v>
@@ -3050,19 +3050,19 @@
         <v>358946</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>332002</v>
+        <v>333091</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>383635</v>
+        <v>383676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5445922890414967</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.503713469894571</v>
+        <v>0.5053662198996948</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5820505269949821</v>
+        <v>0.5821123753104712</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>506943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>472620</v>
+        <v>464993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>547066</v>
+        <v>541937</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4504075492866969</v>
+        <v>0.450407549286697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4199121215082108</v>
+        <v>0.4131360063308326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4860559056266759</v>
+        <v>0.4814988516635517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>477</v>
@@ -3175,19 +3175,19 @@
         <v>368335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>343280</v>
+        <v>343647</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>392058</v>
+        <v>394873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4299738291186296</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4007259805012804</v>
+        <v>0.4011539320626847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4576661018087484</v>
+        <v>0.4609519284496205</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>928</v>
@@ -3196,19 +3196,19 @@
         <v>875279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>830318</v>
+        <v>828903</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>921872</v>
+        <v>920885</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4415765735919097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4188942506006781</v>
+        <v>0.4181801914180376</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4650827778082874</v>
+        <v>0.4645850141838656</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>618578</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>578455</v>
+        <v>583584</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>652901</v>
+        <v>660528</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5495924507133031</v>
+        <v>0.5495924507133032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5139440943733242</v>
+        <v>0.5185011483364484</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5800878784917893</v>
+        <v>0.5868639936691672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>745</v>
@@ -3246,19 +3246,19 @@
         <v>488311</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>464588</v>
+        <v>461773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>513366</v>
+        <v>512999</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5700261708813705</v>
+        <v>0.5700261708813704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5423338981912516</v>
+        <v>0.5390480715503796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5992740194987194</v>
+        <v>0.5988460679373152</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1405</v>
@@ -3267,19 +3267,19 @@
         <v>1106888</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1060295</v>
+        <v>1061282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1151849</v>
+        <v>1153264</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5584234264080904</v>
+        <v>0.5584234264080903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5349172221917126</v>
+        <v>0.5354149858161349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5811057493993218</v>
+        <v>0.5818198085819627</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>236328</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>210362</v>
+        <v>210817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>260969</v>
+        <v>263289</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4179904053090897</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.372064812022194</v>
+        <v>0.3728702433958874</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4615731113117686</v>
+        <v>0.46567656938555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>400</v>
@@ -3392,19 +3392,19 @@
         <v>273680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>249436</v>
+        <v>250995</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>295588</v>
+        <v>296049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3311313066038309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3017978514794725</v>
+        <v>0.3036841226273773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.35763796905039</v>
+        <v>0.3581951493803555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>605</v>
@@ -3413,19 +3413,19 @@
         <v>510008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>475615</v>
+        <v>479052</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>545961</v>
+        <v>547654</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3664137625067155</v>
+        <v>0.3664137625067154</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3417043273872928</v>
+        <v>0.3441735858797357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3922441874917464</v>
+        <v>0.3934605695677874</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>329063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>304422</v>
+        <v>302102</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>355029</v>
+        <v>354574</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5820095946909102</v>
+        <v>0.5820095946909103</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5384268886882314</v>
+        <v>0.5343234306144498</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.627935187977806</v>
+        <v>0.6271297566041125</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>882</v>
@@ -3463,19 +3463,19 @@
         <v>552821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>530913</v>
+        <v>530452</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>577065</v>
+        <v>575506</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6688686933961689</v>
+        <v>0.6688686933961692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6423620309496099</v>
+        <v>0.6418048506196447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6982021485205275</v>
+        <v>0.6963158773726228</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1221</v>
@@ -3484,19 +3484,19 @@
         <v>881883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>845930</v>
+        <v>844237</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>916276</v>
+        <v>912839</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6335862374932847</v>
+        <v>0.6335862374932846</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6077558125082536</v>
+        <v>0.6065394304322126</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6582956726127071</v>
+        <v>0.655826414120264</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>150265</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125992</v>
+        <v>128405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>173655</v>
+        <v>170914</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6334189966027557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5311028416359452</v>
+        <v>0.5412710011639484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7320164724180063</v>
+        <v>0.7204613435609515</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>423</v>
@@ -3609,19 +3609,19 @@
         <v>353794</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>324463</v>
+        <v>327707</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>383833</v>
+        <v>386497</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4232507297602311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3881612528142562</v>
+        <v>0.3920428463306513</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4591867596880331</v>
+        <v>0.4623743106249142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>486</v>
@@ -3630,19 +3630,19 @@
         <v>504059</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>468861</v>
+        <v>465335</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>542343</v>
+        <v>543513</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4697110687382824</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4369113772343782</v>
+        <v>0.4336265306885042</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5053863366319269</v>
+        <v>0.5064772690828947</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>86963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>63573</v>
+        <v>66314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111236</v>
+        <v>108823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3665810033972443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.267983527581994</v>
+        <v>0.2795386564390489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4688971583640549</v>
+        <v>0.4587289988360518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>720</v>
@@ -3680,19 +3680,19 @@
         <v>482103</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>452064</v>
+        <v>449400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>511434</v>
+        <v>508190</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.576749270239769</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5408132403119669</v>
+        <v>0.537625689375086</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6118387471857438</v>
+        <v>0.6079571536693487</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>769</v>
@@ -3701,19 +3701,19 @@
         <v>569066</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>530782</v>
+        <v>529612</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>604264</v>
+        <v>607790</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5302889312617175</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4946136633680732</v>
+        <v>0.4935227309171054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5630886227656218</v>
+        <v>0.5663734693114961</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>1594045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1530877</v>
+        <v>1531815</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1658802</v>
+        <v>1661300</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4643417826714897</v>
+        <v>0.4643417826714896</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4459409969455543</v>
+        <v>0.4462142183990522</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4832052562090844</v>
+        <v>0.4839329191705009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1963</v>
@@ -3826,19 +3826,19 @@
         <v>1486001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1435354</v>
+        <v>1433281</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1535514</v>
+        <v>1542419</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4110326742652553</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3970233230394548</v>
+        <v>0.3964498947875003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4247279051841988</v>
+        <v>0.4266380295030978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3350</v>
@@ -3847,19 +3847,19 @@
         <v>3080047</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2998370</v>
+        <v>2994980</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3165038</v>
+        <v>3168985</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4369975348127583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4254091876752191</v>
+        <v>0.4249281795539402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4490559654714784</v>
+        <v>0.4496159646606087</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>1838869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1774112</v>
+        <v>1771614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1902037</v>
+        <v>1901099</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5356582173285105</v>
+        <v>0.5356582173285104</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5167947437909156</v>
+        <v>0.5160670808294993</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5540590030544457</v>
+        <v>0.5537857816009478</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3245</v>
@@ -3897,19 +3897,19 @@
         <v>2129287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2079774</v>
+        <v>2072869</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2179934</v>
+        <v>2182007</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5889673257347448</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5752720948158008</v>
+        <v>0.5733619704969024</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6029766769605448</v>
+        <v>0.6035501052125003</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5147</v>
@@ -3918,19 +3918,19 @@
         <v>3968156</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3883165</v>
+        <v>3879218</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4049833</v>
+        <v>4053223</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5630024651872417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5509440345285214</v>
+        <v>0.5503840353393914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5745908123247807</v>
+        <v>0.5750718204460596</v>
       </c>
     </row>
     <row r="24">
